--- a/results_scenarios/Progress.xlsx
+++ b/results_scenarios/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyen2\Dropbox\UIC BSTT 565 Computational Statistics\5.EXAM\Midterm\Q2_EM_Mxture Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d57f1f13c84bbe2/Documents/UIC/Computational Statistics/Midterm/Q2/midterm_q2/results_scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE90C5A-699B-4DE4-89E5-667330176464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{4CE90C5A-699B-4DE4-89E5-667330176464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B19464E6-ED8F-412F-B50C-38D25A4F058C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EE5A4A25-B298-45F3-B62A-9B734A8E7EF2}"/>
+    <workbookView xWindow="8550" yWindow="2790" windowWidth="23685" windowHeight="15435" activeTab="2" xr2:uid="{EE5A4A25-B298-45F3-B62A-9B734A8E7EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress" sheetId="1" r:id="rId1"/>
@@ -1120,24 +1120,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,13 +1130,7 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1176,27 +1152,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1216,34 +1171,79 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1567,20 +1567,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="5" max="5" width="15.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1599,15 +1599,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1639,15 +1639,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1658,15 +1658,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1677,15 +1677,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
       <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1696,22 +1696,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G12" s="7">
         <v>44142</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G13" s="7">
         <v>44147</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G14" s="7">
         <v>44161</v>
       </c>
@@ -1735,12 +1735,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="6" t="s">
         <v>32</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1764,27 +1764,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="2" t="s">
         <v>81</v>
       </c>
@@ -1809,16 +1809,16 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="27" customWidth="1"/>
     <col min="3" max="3" width="24" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="20.77734375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>83</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="28"/>
@@ -1839,7 +1839,7 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>84</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>85</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>86</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>88</v>
       </c>
@@ -1899,27 +1899,27 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1927,12 +1927,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="4"/>
@@ -1941,7 +1941,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>108</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>106</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>134</v>
       </c>
@@ -1988,13 +1988,13 @@
       <c r="E20" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>135</v>
       </c>
@@ -2008,12 +2008,12 @@
       <c r="F21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="64"/>
+    </row>
+    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>101</v>
       </c>
@@ -2024,13 +2024,13 @@
       <c r="E22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-    </row>
-    <row r="23" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+    </row>
+    <row r="23" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>102</v>
       </c>
@@ -2041,11 +2041,11 @@
       <c r="E23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-    </row>
-    <row r="24" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="24" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>136</v>
       </c>
@@ -2055,16 +2055,16 @@
       <c r="D24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41" t="s">
+      <c r="F24" s="64"/>
+      <c r="G24" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="64"/>
+    </row>
+    <row r="25" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>137</v>
       </c>
@@ -2074,8 +2074,8 @@
       <c r="D25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="3" t="s">
         <v>122</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>103</v>
       </c>
@@ -2099,12 +2099,12 @@
       <c r="F26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="27" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="64"/>
+    </row>
+    <row r="27" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>104</v>
       </c>
@@ -2117,13 +2117,13 @@
       <c r="E27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="60"/>
+      <c r="H27" s="61"/>
+    </row>
+    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>105</v>
       </c>
@@ -2136,13 +2136,13 @@
       <c r="E28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
+    </row>
+    <row r="29" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="4"/>
@@ -2151,7 +2151,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="4"/>
@@ -2160,7 +2160,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="4"/>
@@ -2169,7 +2169,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="4"/>
@@ -2199,138 +2199,140 @@
   <dimension ref="B1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="15.77734375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="80" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="79" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="79" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="79" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="79" t="s">
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="75"/>
-    </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="72" t="s">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74" t="s">
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="77" t="b">
+      <c r="D4" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="77" t="b">
+      <c r="G4" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="77" t="b">
+      <c r="J4" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="M4" s="77" t="b">
+      <c r="M4" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="P4" s="77" t="b">
+      <c r="P4" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="58" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="46"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="71"/>
       <c r="C5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="33">
+        <v>38806</v>
+      </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -2344,85 +2346,95 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
-      <c r="R5" s="47"/>
-    </row>
-    <row r="6" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49" t="s">
+      <c r="R5" s="40"/>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="72"/>
+      <c r="C6" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="51"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
+      <c r="D6" s="42">
+        <v>2951.97</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="45">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54">
+      <c r="E7" s="45">
+        <v>0.7641</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="G7" s="46">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54">
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53">
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="55">
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="47">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="56"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="65" t="s">
+      <c r="Q7" s="45"/>
+      <c r="R7" s="48"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="74"/>
+      <c r="C8" s="50" t="s">
         <v>145</v>
       </c>
       <c r="D8" s="33">
         <f t="shared" ref="D8:D12" si="0">1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="42">
+      <c r="E8" s="33">
+        <v>0.1285</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0.31659999999999999</v>
+      </c>
+      <c r="G8" s="36">
         <f t="shared" ref="G8:G12" si="1">1/5</f>
         <v>0.2</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="42">
+      <c r="J8" s="36">
         <f t="shared" ref="J8:J10" si="2">1/4</f>
         <v>0.25</v>
       </c>
@@ -2434,31 +2446,35 @@
       </c>
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
-      <c r="P8" s="43">
+      <c r="P8" s="37">
         <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="Q8" s="33"/>
-      <c r="R8" s="47"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="63"/>
-      <c r="C9" s="65" t="s">
+      <c r="R8" s="40"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="74"/>
+      <c r="C9" s="50" t="s">
         <v>146</v>
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="42">
+      <c r="E9" s="33">
+        <v>5.96E-2</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0.1946</v>
+      </c>
+      <c r="G9" s="36">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="42">
+      <c r="J9" s="36">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -2472,26 +2488,30 @@
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
-      <c r="R9" s="47"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="63"/>
-      <c r="C10" s="65" t="s">
+      <c r="R9" s="40"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="74"/>
+      <c r="C10" s="50" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="42">
+      <c r="E10" s="33">
+        <v>3.15E-2</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.128</v>
+      </c>
+      <c r="G10" s="36">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="42">
+      <c r="J10" s="36">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
@@ -2502,26 +2522,30 @@
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="47"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="65" t="s">
+      <c r="R10" s="40"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="74"/>
+      <c r="C11" s="50" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="42">
+      <c r="E11" s="33">
+        <v>1.34E-2</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="G11" s="36">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
@@ -2529,224 +2553,252 @@
       <c r="O11" s="33"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
-      <c r="R11" s="47"/>
-    </row>
-    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="63"/>
-      <c r="C12" s="66" t="s">
+      <c r="R11" s="40"/>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="74"/>
+      <c r="C12" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="42">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="67">
+      <c r="E12" s="42">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="G12" s="52">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="51"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="44" t="s">
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="75"/>
+      <c r="C13" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="39">
         <v>0.3</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45">
+      <c r="E13" s="39">
+        <v>6.2704000000000004</v>
+      </c>
+      <c r="F13" s="39">
+        <v>24.48</v>
+      </c>
+      <c r="G13" s="39">
         <v>0.3</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45">
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39">
         <v>0.3</v>
       </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39">
         <v>0.3</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45">
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39">
         <v>0.5</v>
       </c>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="68"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="53"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="75"/>
       <c r="C14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="36">
         <v>0.8</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42">
+      <c r="E14" s="36">
+        <v>0.66690000000000005</v>
+      </c>
+      <c r="F14" s="36">
+        <v>8.5370000000000008</v>
+      </c>
+      <c r="G14" s="36">
         <v>0.8</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42">
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36">
         <v>0.8</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36">
         <v>3</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42">
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36">
         <v>5</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="69"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="54"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="75"/>
       <c r="C15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="36">
         <v>3</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42">
+      <c r="E15" s="36">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1.7474000000000001</v>
+      </c>
+      <c r="G15" s="36">
         <v>3</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42">
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36">
         <v>3</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42">
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36">
         <v>8</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="69"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="54"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="75"/>
       <c r="C16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="36">
         <v>8</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42">
+      <c r="E16" s="36">
+        <v>0.16320000000000001</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="G16" s="36">
         <v>8</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42">
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36">
         <v>8</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="69"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="54"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="75"/>
       <c r="C17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="36">
         <v>15</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42">
+      <c r="E17" s="36">
+        <v>0.1007</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0.2898</v>
+      </c>
+      <c r="G17" s="36">
         <v>15</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="69"/>
-    </row>
-    <row r="18" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="58"/>
-      <c r="C18" s="49" t="s">
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="54"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="76"/>
+      <c r="C18" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="52">
         <v>25</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="70"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="E18" s="52">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="F18" s="52">
+        <v>0.2898</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="55"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="56"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="48"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="78"/>
       <c r="C20" s="1"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -2762,10 +2814,10 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
-      <c r="R20" s="47"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="78"/>
       <c r="C21" s="1"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -2781,10 +2833,10 @@
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
-      <c r="R21" s="47"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
+      <c r="R21" s="40"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="78"/>
       <c r="C22" s="1"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -2800,10 +2852,10 @@
       <c r="O22" s="33"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
-      <c r="R22" s="47"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="60"/>
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="78"/>
       <c r="C23" s="1"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -2819,10 +2871,10 @@
       <c r="O23" s="33"/>
       <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
-      <c r="R23" s="47"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
+      <c r="R23" s="40"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
       <c r="C24" s="1"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -2838,10 +2890,10 @@
       <c r="O24" s="33"/>
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
-      <c r="R24" s="47"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
+      <c r="R24" s="40"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="78"/>
       <c r="C25" s="1"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -2857,145 +2909,145 @@
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
-      <c r="R25" s="47"/>
-    </row>
-    <row r="26" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="61"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="51"/>
-    </row>
-    <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="80" t="s">
+      <c r="R25" s="40"/>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="79"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="79" t="s">
+      <c r="C28" s="69"/>
+      <c r="D28" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="79" t="s">
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="79" t="s">
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="79" t="s">
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="79" t="s">
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="75"/>
-    </row>
-    <row r="29" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="72" t="s">
+      <c r="Q28" s="66"/>
+      <c r="R28" s="67"/>
+    </row>
+    <row r="29" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74" t="s">
+      <c r="C29" s="81"/>
+      <c r="D29" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74" t="s">
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74" t="s">
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74" t="s">
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74" t="s">
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="75"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="76" t="s">
+      <c r="Q29" s="66"/>
+      <c r="R29" s="67"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="77" t="b">
+      <c r="D30" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="77" t="s">
+      <c r="F30" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="77" t="b">
+      <c r="G30" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="77" t="s">
+      <c r="H30" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="77" t="s">
+      <c r="I30" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="J30" s="77" t="b">
+      <c r="J30" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="77" t="s">
+      <c r="K30" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="L30" s="77" t="s">
+      <c r="L30" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="M30" s="77" t="b">
+      <c r="M30" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="O30" s="77" t="s">
+      <c r="O30" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="P30" s="77" t="b">
+      <c r="P30" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="Q30" s="77" t="s">
+      <c r="Q30" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="R30" s="78" t="s">
+      <c r="R30" s="58" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="71"/>
       <c r="C31" s="1" t="s">
         <v>162</v>
       </c>
@@ -3013,386 +3065,386 @@
       <c r="O31" s="33"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="33"/>
-      <c r="R31" s="47"/>
-    </row>
-    <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="48"/>
-      <c r="C32" s="49" t="s">
+      <c r="R31" s="40"/>
+    </row>
+    <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="72"/>
+      <c r="C32" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="51"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="62" t="s">
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="46">
         <v>0.5</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54">
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46">
         <v>0.5</v>
       </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54">
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46">
         <v>0.5</v>
       </c>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54">
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46">
         <v>0.6</v>
       </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54">
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46">
         <v>0.8</v>
       </c>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="71"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="63"/>
-      <c r="C34" s="65" t="s">
+      <c r="Q33" s="46"/>
+      <c r="R33" s="56"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="74"/>
+      <c r="C34" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="36">
         <v>0.25</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42">
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36">
         <v>0.25</v>
       </c>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42">
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36">
         <v>0.3</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42">
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36">
         <v>0.3</v>
       </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42">
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36">
         <v>0.2</v>
       </c>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="69"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="63"/>
-      <c r="C35" s="65" t="s">
+      <c r="Q34" s="36"/>
+      <c r="R34" s="54"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="74"/>
+      <c r="C35" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="36">
         <v>0.12</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36">
         <v>0.12</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42">
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36">
         <v>0.2</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42">
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36">
         <v>0.1</v>
       </c>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="69"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="63"/>
-      <c r="C36" s="65" t="s">
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="54"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="74"/>
+      <c r="C36" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="36">
         <v>0.08</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42">
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36">
         <v>0.08</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42">
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36">
         <v>0.1</v>
       </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="69"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="63"/>
-      <c r="C37" s="65" t="s">
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="54"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="74"/>
+      <c r="C37" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="36">
         <v>0.03</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36">
         <v>0.05</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="69"/>
-    </row>
-    <row r="38" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="63"/>
-      <c r="C38" s="66" t="s">
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="54"/>
+    </row>
+    <row r="38" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="74"/>
+      <c r="C38" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="52">
         <v>0.02</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="70"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="44" t="s">
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="55"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="75"/>
+      <c r="C39" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="39">
         <v>0.3</v>
       </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39">
         <v>0.3</v>
       </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45">
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39">
         <v>0.3</v>
       </c>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45">
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39">
         <v>0.3</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45">
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39">
         <v>0.5</v>
       </c>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="68"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="53"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="75"/>
       <c r="C40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="36">
         <v>0.8</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42">
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36">
         <v>0.8</v>
       </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42">
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36">
         <v>0.8</v>
       </c>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42">
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36">
         <v>3</v>
       </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42">
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36">
         <v>5</v>
       </c>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="69"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="54"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="75"/>
       <c r="C41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="36">
         <v>3</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42">
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36">
         <v>3</v>
       </c>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42">
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36">
         <v>3</v>
       </c>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42">
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36">
         <v>8</v>
       </c>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="69"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="54"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="75"/>
       <c r="C42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="36">
         <v>8</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42">
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36">
         <v>8</v>
       </c>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42">
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36">
         <v>8</v>
       </c>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="69"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="54"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="75"/>
       <c r="C43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="36">
         <v>15</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42">
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36">
         <v>15</v>
       </c>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="69"/>
-    </row>
-    <row r="44" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="58"/>
-      <c r="C44" s="49" t="s">
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="54"/>
+    </row>
+    <row r="44" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="76"/>
+      <c r="C44" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="67">
+      <c r="D44" s="52">
         <v>25</v>
       </c>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="70"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="59" t="s">
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="55"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="56"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="60"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="48"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="78"/>
       <c r="C46" s="1"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
@@ -3408,10 +3460,10 @@
       <c r="O46" s="33"/>
       <c r="P46" s="33"/>
       <c r="Q46" s="33"/>
-      <c r="R46" s="47"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="60"/>
+      <c r="R46" s="40"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="78"/>
       <c r="C47" s="1"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
@@ -3427,10 +3479,10 @@
       <c r="O47" s="33"/>
       <c r="P47" s="33"/>
       <c r="Q47" s="33"/>
-      <c r="R47" s="47"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="60"/>
+      <c r="R47" s="40"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="78"/>
       <c r="C48" s="1"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
@@ -3446,10 +3498,10 @@
       <c r="O48" s="33"/>
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
-      <c r="R48" s="47"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="60"/>
+      <c r="R48" s="40"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="78"/>
       <c r="C49" s="1"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
@@ -3465,10 +3517,10 @@
       <c r="O49" s="33"/>
       <c r="P49" s="33"/>
       <c r="Q49" s="33"/>
-      <c r="R49" s="47"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="60"/>
+      <c r="R49" s="40"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="78"/>
       <c r="C50" s="1"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
@@ -3484,10 +3536,10 @@
       <c r="O50" s="33"/>
       <c r="P50" s="33"/>
       <c r="Q50" s="33"/>
-      <c r="R50" s="47"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="60"/>
+      <c r="R50" s="40"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="78"/>
       <c r="C51" s="1"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
@@ -3503,29 +3555,46 @@
       <c r="O51" s="33"/>
       <c r="P51" s="33"/>
       <c r="Q51" s="33"/>
-      <c r="R51" s="47"/>
-    </row>
-    <row r="52" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="61"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="51"/>
+      <c r="R51" s="40"/>
+    </row>
+    <row r="52" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="79"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="B2:C2"/>
@@ -3535,26 +3604,9 @@
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="P28:R28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3570,9 +3622,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>139</v>
       </c>
@@ -3584,7 +3636,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>142</v>
       </c>
@@ -3598,7 +3650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="15">
         <v>1</v>
       </c>
@@ -3612,7 +3664,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <v>2</v>
       </c>
@@ -3626,7 +3678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -3640,7 +3692,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -3657,7 +3709,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>144</v>
       </c>
@@ -3668,7 +3720,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
         <v>0.3</v>
       </c>
@@ -3679,12 +3731,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
         <v>148</v>
       </c>
@@ -3702,12 +3754,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.109375" style="8"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>39</v>
       </c>
@@ -3730,7 +3782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="9">
         <v>0.25</v>
       </c>
@@ -3747,7 +3799,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>46</v>
       </c>
@@ -3768,7 +3820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="D4" s="13">
@@ -3787,7 +3839,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>25</v>
       </c>
@@ -3800,7 +3852,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>0.3</v>
       </c>
@@ -3813,7 +3865,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>6</v>
       </c>
@@ -3826,7 +3878,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="17">
         <v>75</v>
       </c>
@@ -3845,7 +3897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>8</v>
       </c>
@@ -3868,7 +3920,7 @@
       </c>
       <c r="R9" s="21"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3889,7 +3941,7 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M11" s="23" t="s">
         <v>57</v>
       </c>
@@ -3900,7 +3952,7 @@
       </c>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>59</v>
       </c>
@@ -3917,12 +3969,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="11">
         <v>1</v>
       </c>
@@ -3948,7 +4000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <v>2</v>
       </c>
@@ -3971,7 +4023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="11">
         <v>3</v>
       </c>
@@ -3991,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="11">
         <v>4</v>
       </c>
@@ -4011,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="11">
         <v>5</v>
       </c>
@@ -4031,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="11">
         <v>6</v>
       </c>
@@ -4054,22 +4106,22 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>72</v>
       </c>
@@ -4080,12 +4132,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>76</v>
       </c>
